--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H2">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I2">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J2">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>180.370987617061</v>
+        <v>201.0534719128338</v>
       </c>
       <c r="R2">
-        <v>180.370987617061</v>
+        <v>1809.481247215504</v>
       </c>
       <c r="S2">
-        <v>0.0446369059592962</v>
+        <v>0.044629140834076</v>
       </c>
       <c r="T2">
-        <v>0.0446369059592962</v>
+        <v>0.05491714528838448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H3">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I3">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J3">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>76.97143114226439</v>
+        <v>88.38455010321667</v>
       </c>
       <c r="R3">
-        <v>76.97143114226439</v>
+        <v>795.46095092895</v>
       </c>
       <c r="S3">
-        <v>0.01904833243328493</v>
+        <v>0.01961929081146653</v>
       </c>
       <c r="T3">
-        <v>0.01904833243328493</v>
+        <v>0.02414197145210809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H4">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I4">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J4">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>105.1435700803548</v>
+        <v>114.7016105452133</v>
       </c>
       <c r="R4">
-        <v>105.1435700803548</v>
+        <v>1032.31449490692</v>
       </c>
       <c r="S4">
-        <v>0.0260201693848104</v>
+        <v>0.0254610591014166</v>
       </c>
       <c r="T4">
-        <v>0.0260201693848104</v>
+        <v>0.03133039659148053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H5">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I5">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J5">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>98.19586619734423</v>
+        <v>108.3333289114045</v>
       </c>
       <c r="R5">
-        <v>98.19586619734423</v>
+        <v>974.9999602026401</v>
       </c>
       <c r="S5">
-        <v>0.0243008019357759</v>
+        <v>0.02404745039721309</v>
       </c>
       <c r="T5">
-        <v>0.0243008019357759</v>
+        <v>0.02959091980257506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H6">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I6">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J6">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>52.1855397627083</v>
+        <v>56.19081576143534</v>
       </c>
       <c r="R6">
-        <v>52.1855397627083</v>
+        <v>337.144894568612</v>
       </c>
       <c r="S6">
-        <v>0.01291449950791747</v>
+        <v>0.01247303916883337</v>
       </c>
       <c r="T6">
-        <v>0.01291449950791747</v>
+        <v>0.0102322337889675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H7">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I7">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J7">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>389.4846773409624</v>
+        <v>462.9526067610186</v>
       </c>
       <c r="R7">
-        <v>389.4846773409624</v>
+        <v>4166.573460849168</v>
       </c>
       <c r="S7">
-        <v>0.09638684771170429</v>
+        <v>0.1027645874008966</v>
       </c>
       <c r="T7">
-        <v>0.09638684771170429</v>
+        <v>0.1264540986298099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H8">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I8">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J8">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>166.2085095778522</v>
+        <v>203.51729059135</v>
       </c>
       <c r="R8">
-        <v>166.2085095778522</v>
+        <v>1831.65561532215</v>
       </c>
       <c r="S8">
-        <v>0.04113207844385953</v>
+        <v>0.04517605061756285</v>
       </c>
       <c r="T8">
-        <v>0.04113207844385953</v>
+        <v>0.05559012987823018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H9">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I9">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J9">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>227.0421092008829</v>
+        <v>264.11585483396</v>
       </c>
       <c r="R9">
-        <v>227.0421092008829</v>
+        <v>2377.04269350564</v>
       </c>
       <c r="S9">
-        <v>0.05618673718589465</v>
+        <v>0.05862750625369708</v>
       </c>
       <c r="T9">
-        <v>0.05618673718589465</v>
+        <v>0.07214244367374481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H10">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I10">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J10">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>212.0395622786473</v>
+        <v>249.4520315489867</v>
       </c>
       <c r="R10">
-        <v>212.0395622786473</v>
+        <v>2245.06828394088</v>
       </c>
       <c r="S10">
-        <v>0.05247401550617806</v>
+        <v>0.05537248246164436</v>
       </c>
       <c r="T10">
-        <v>0.05247401550617806</v>
+        <v>0.0681370648749484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H11">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I11">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J11">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>112.6870146073306</v>
+        <v>129.386895860534</v>
       </c>
       <c r="R11">
-        <v>112.6870146073306</v>
+        <v>776.321375163204</v>
       </c>
       <c r="S11">
-        <v>0.02788696641468893</v>
+        <v>0.0287208469592964</v>
       </c>
       <c r="T11">
-        <v>0.02788696641468893</v>
+        <v>0.02356109178579324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H12">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I12">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J12">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>57.20188402101868</v>
+        <v>67.65251293956801</v>
       </c>
       <c r="R12">
-        <v>57.20188402101868</v>
+        <v>608.872616456112</v>
       </c>
       <c r="S12">
-        <v>0.01415590806189756</v>
+        <v>0.01501726629753565</v>
       </c>
       <c r="T12">
-        <v>0.01415590806189756</v>
+        <v>0.01847907846046707</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H13">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I13">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J13">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>24.41030531184589</v>
+        <v>29.74053052965001</v>
       </c>
       <c r="R13">
-        <v>24.41030531184589</v>
+        <v>267.66477476685</v>
       </c>
       <c r="S13">
-        <v>0.006040885604928126</v>
+        <v>0.006601698109761228</v>
       </c>
       <c r="T13">
-        <v>0.006040885604928126</v>
+        <v>0.008123535597328662</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H14">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I14">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J14">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>33.34466579548413</v>
+        <v>38.59596214764</v>
       </c>
       <c r="R14">
-        <v>33.34466579548413</v>
+        <v>347.36365932876</v>
       </c>
       <c r="S14">
-        <v>0.008251896444217283</v>
+        <v>0.008567395598423087</v>
       </c>
       <c r="T14">
-        <v>0.008251896444217283</v>
+        <v>0.01054236985136905</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H15">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I15">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J15">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>31.14130838762814</v>
+        <v>36.45309810488001</v>
       </c>
       <c r="R15">
-        <v>31.14130838762814</v>
+        <v>328.0778829439201</v>
       </c>
       <c r="S15">
-        <v>0.007706625507308118</v>
+        <v>0.008091730193380615</v>
       </c>
       <c r="T15">
-        <v>0.007706625507308118</v>
+        <v>0.009957053045596482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H16">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I16">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J16">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N16">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O16">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P16">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q16">
-        <v>16.54984114972125</v>
+        <v>18.907656029106</v>
       </c>
       <c r="R16">
-        <v>16.54984114972125</v>
+        <v>113.445936174636</v>
       </c>
       <c r="S16">
-        <v>0.004095634851264307</v>
+        <v>0.004197054821968354</v>
       </c>
       <c r="T16">
-        <v>0.004095634851264307</v>
+        <v>0.003443045883380348</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H17">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I17">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J17">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N17">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O17">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P17">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q17">
-        <v>91.8315957148084</v>
+        <v>98.20730043497953</v>
       </c>
       <c r="R17">
-        <v>91.8315957148084</v>
+        <v>883.8657039148159</v>
       </c>
       <c r="S17">
-        <v>0.02272581836008246</v>
+        <v>0.02179971029770286</v>
       </c>
       <c r="T17">
-        <v>0.02272581836008246</v>
+        <v>0.02682502587523598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H18">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I18">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J18">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N18">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P18">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q18">
-        <v>39.18817233098105</v>
+        <v>43.17263453953333</v>
       </c>
       <c r="R18">
-        <v>39.18817233098105</v>
+        <v>388.5537108558</v>
       </c>
       <c r="S18">
-        <v>0.009698005129119981</v>
+        <v>0.009583309199844445</v>
       </c>
       <c r="T18">
-        <v>0.009698005129119981</v>
+        <v>0.01179247401665256</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H19">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I19">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J19">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N19">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O19">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P19">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q19">
-        <v>53.53134640549846</v>
+        <v>56.02756033018665</v>
       </c>
       <c r="R19">
-        <v>53.53134640549846</v>
+        <v>504.2480429716799</v>
       </c>
       <c r="S19">
-        <v>0.01324754999096499</v>
+        <v>0.01243680030380007</v>
       </c>
       <c r="T19">
-        <v>0.01324754999096499</v>
+        <v>0.01530375795818417</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H20">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I20">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J20">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N20">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O20">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P20">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q20">
-        <v>49.99408832114742</v>
+        <v>52.91688662872888</v>
       </c>
       <c r="R20">
-        <v>49.99408832114742</v>
+        <v>476.25197965856</v>
       </c>
       <c r="S20">
-        <v>0.01237217497333659</v>
+        <v>0.01174630392295964</v>
       </c>
       <c r="T20">
-        <v>0.01237217497333659</v>
+        <v>0.01445408688320877</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H21">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I21">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J21">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N21">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O21">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P21">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q21">
-        <v>26.56902561193712</v>
+        <v>27.44716752547466</v>
       </c>
       <c r="R21">
-        <v>26.56902561193712</v>
+        <v>164.683005152848</v>
       </c>
       <c r="S21">
-        <v>0.006575110073622457</v>
+        <v>0.006092625475883138</v>
       </c>
       <c r="T21">
-        <v>0.006575110073622457</v>
+        <v>0.004998073638189862</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H22">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I22">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J22">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N22">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O22">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P22">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q22">
-        <v>702.242116894598</v>
+        <v>762.8894218183412</v>
       </c>
       <c r="R22">
-        <v>702.242116894598</v>
+        <v>4577.336530910047</v>
       </c>
       <c r="S22">
-        <v>0.1737857941934133</v>
+        <v>0.1693435041097853</v>
       </c>
       <c r="T22">
-        <v>0.1737857941934133</v>
+        <v>0.1389206192043387</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H23">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I23">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J23">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N23">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P23">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q23">
-        <v>299.6744734829948</v>
+        <v>335.37166846415</v>
       </c>
       <c r="R23">
-        <v>299.6744734829948</v>
+        <v>2012.2300107849</v>
       </c>
       <c r="S23">
-        <v>0.07416126877156809</v>
+        <v>0.07444462053425592</v>
       </c>
       <c r="T23">
-        <v>0.07416126877156809</v>
+        <v>0.0610705018501697</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H24">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I24">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J24">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N24">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O24">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P24">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q24">
-        <v>409.3576478487931</v>
+        <v>435.2307101088399</v>
       </c>
       <c r="R24">
-        <v>409.3576478487931</v>
+        <v>2611.38426065304</v>
       </c>
       <c r="S24">
-        <v>0.1013048665539208</v>
+        <v>0.09661097852208957</v>
       </c>
       <c r="T24">
-        <v>0.1013048665539208</v>
+        <v>0.07925463116391378</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H25">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I25">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J25">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N25">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O25">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P25">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q25">
-        <v>382.3080078439352</v>
+        <v>411.0665181286133</v>
       </c>
       <c r="R25">
-        <v>382.3080078439352</v>
+        <v>2466.39910877168</v>
       </c>
       <c r="S25">
-        <v>0.09461081751044012</v>
+        <v>0.09124709638284088</v>
       </c>
       <c r="T25">
-        <v>0.09461081751044012</v>
+        <v>0.07485438072596114</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H26">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I26">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J26">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N26">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O26">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P26">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q26">
-        <v>203.175047153676</v>
+        <v>213.213820880086</v>
       </c>
       <c r="R26">
-        <v>203.175047153676</v>
+        <v>852.855283520344</v>
       </c>
       <c r="S26">
-        <v>0.0502802894905055</v>
+        <v>0.04732845222366641</v>
       </c>
       <c r="T26">
-        <v>0.0502802894905055</v>
+        <v>0.02588387007996164</v>
       </c>
     </row>
   </sheetData>
